--- a/data/trans_orig/P23_R2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P23_R2-Provincia-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>103900</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>86825</v>
+        <v>88592</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>119720</v>
+        <v>120625</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3805728869197263</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3180274224772859</v>
+        <v>0.3245002513510163</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4385174209222792</v>
+        <v>0.4418336587847999</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>62</v>
@@ -765,19 +765,19 @@
         <v>65175</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52045</v>
+        <v>50641</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80379</v>
+        <v>80725</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2498659483983223</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1995293599331339</v>
+        <v>0.1941470101815669</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3081551871010227</v>
+        <v>0.3094838016995744</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>163</v>
@@ -786,19 +786,19 @@
         <v>169075</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>147721</v>
+        <v>149081</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>190713</v>
+        <v>190217</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3167094906783617</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2767100337834553</v>
+        <v>0.2792577519510835</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3572426959226457</v>
+        <v>0.356313921572768</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>169110</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>153290</v>
+        <v>152385</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>186185</v>
+        <v>184418</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6194271130802737</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5614825790777208</v>
+        <v>0.5581663412152001</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.681972577522714</v>
+        <v>0.6754997486489835</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>183</v>
@@ -836,19 +836,19 @@
         <v>195663</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>180459</v>
+        <v>180113</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>208793</v>
+        <v>210197</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7501340516016777</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6918448128989774</v>
+        <v>0.6905161983004257</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8004706400668661</v>
+        <v>0.8058529898184331</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>353</v>
@@ -857,19 +857,19 @@
         <v>364773</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>343135</v>
+        <v>343631</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>386127</v>
+        <v>384767</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6832905093216383</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6427573040773544</v>
+        <v>0.643686078427232</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7232899662165448</v>
+        <v>0.7207422480489164</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>176664</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>153580</v>
+        <v>155615</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>197123</v>
+        <v>199283</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3590480766515697</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.312133604021921</v>
+        <v>0.3162696107969801</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4006303195203668</v>
+        <v>0.4050202524659338</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>111</v>
@@ -982,19 +982,19 @@
         <v>112770</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>95632</v>
+        <v>95608</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>131971</v>
+        <v>131779</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2237724473035473</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1897643410791238</v>
+        <v>0.189716832715961</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.261874202045207</v>
+        <v>0.2614933500670415</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>275</v>
@@ -1003,19 +1003,19 @@
         <v>289433</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>262709</v>
+        <v>260944</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>322084</v>
+        <v>315960</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2906010224793164</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2637692359233608</v>
+        <v>0.2619970922477742</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3233829914561033</v>
+        <v>0.3172348130082341</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>315369</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>294910</v>
+        <v>292750</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>338453</v>
+        <v>336418</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6409519233484303</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5993696804796333</v>
+        <v>0.5949797475340662</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6878663959780791</v>
+        <v>0.68373038920302</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>388</v>
@@ -1053,19 +1053,19 @@
         <v>391179</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>371978</v>
+        <v>372170</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>408317</v>
+        <v>408341</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7762275526964526</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7381257979547927</v>
+        <v>0.7385066499329582</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8102356589208761</v>
+        <v>0.8102831672840387</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>688</v>
@@ -1074,19 +1074,19 @@
         <v>706549</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>673898</v>
+        <v>680022</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>733273</v>
+        <v>735038</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7093989775206836</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6766170085438967</v>
+        <v>0.6827651869917658</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7362307640766391</v>
+        <v>0.7380029077522259</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>137000</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>119175</v>
+        <v>119039</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>154721</v>
+        <v>155674</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.429673223298334</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3737708374089987</v>
+        <v>0.3733440421891886</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4852544235180886</v>
+        <v>0.488241420634473</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>94</v>
@@ -1199,19 +1199,19 @@
         <v>93957</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78937</v>
+        <v>79391</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>110506</v>
+        <v>110716</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2801237114406709</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2353433958115442</v>
+        <v>0.236697477511399</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3294635567858237</v>
+        <v>0.3300889398622723</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>226</v>
@@ -1220,19 +1220,19 @@
         <v>230956</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>206007</v>
+        <v>209385</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>253983</v>
+        <v>256505</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3530051385440027</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3148705435481375</v>
+        <v>0.3200341156574988</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.388199556766759</v>
+        <v>0.3920551864389317</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>181846</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>164125</v>
+        <v>163172</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>199671</v>
+        <v>199807</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.570326776701666</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5147455764819115</v>
+        <v>0.5117585793655278</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6262291625910014</v>
+        <v>0.6266559578108114</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>241</v>
@@ -1270,19 +1270,19 @@
         <v>241455</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>224906</v>
+        <v>224696</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>256475</v>
+        <v>256021</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7198762885593292</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6705364432141764</v>
+        <v>0.6699110601377277</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7646566041884558</v>
+        <v>0.7633025224886011</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>419</v>
@@ -1291,19 +1291,19 @@
         <v>423302</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>400275</v>
+        <v>397753</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>448251</v>
+        <v>444873</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6469948614559973</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.611800443233241</v>
+        <v>0.6079448135610688</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6851294564518624</v>
+        <v>0.6799658843425013</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>161520</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>144330</v>
+        <v>142706</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>181008</v>
+        <v>179888</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4503303303159498</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4024028998538581</v>
+        <v>0.3978746233716283</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5046632336312576</v>
+        <v>0.5015407610930759</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>102</v>
@@ -1416,19 +1416,19 @@
         <v>98474</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82360</v>
+        <v>83384</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>115185</v>
+        <v>116510</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2651033686711269</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2217213958205887</v>
+        <v>0.2244782660436765</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3100903577648892</v>
+        <v>0.3136564523808195</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>264</v>
@@ -1437,19 +1437,19 @@
         <v>259995</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>235852</v>
+        <v>234448</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>287099</v>
+        <v>285560</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.356095145849506</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.323028740286214</v>
+        <v>0.3211062538820201</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.393217616300055</v>
+        <v>0.3911096960802662</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>197151</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>177663</v>
+        <v>178783</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>214341</v>
+        <v>215965</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5496696696840502</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4953367663687422</v>
+        <v>0.4984592389069241</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5975971001461419</v>
+        <v>0.6021253766283717</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>282</v>
@@ -1487,19 +1487,19 @@
         <v>272982</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>256271</v>
+        <v>254946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>289096</v>
+        <v>288072</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7348966313288732</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6899096422351105</v>
+        <v>0.6863435476191801</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7782786041794112</v>
+        <v>0.7755217339563234</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>482</v>
@@ -1508,19 +1508,19 @@
         <v>470132</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>443028</v>
+        <v>444567</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>494275</v>
+        <v>495679</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.643904854150494</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.606782383699945</v>
+        <v>0.6088903039197338</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6769712597137859</v>
+        <v>0.6788937461179799</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>78536</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>66050</v>
+        <v>65838</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>95022</v>
+        <v>92632</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3862897046883427</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3248771380222333</v>
+        <v>0.3238332875861116</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4673789589656405</v>
+        <v>0.4556236517780241</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>54</v>
@@ -1633,19 +1633,19 @@
         <v>56554</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44007</v>
+        <v>44292</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69777</v>
+        <v>71724</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2723298659424923</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2119118106856493</v>
+        <v>0.2132805713215159</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3360010386022627</v>
+        <v>0.3453770745665014</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>135</v>
@@ -1654,19 +1654,19 @@
         <v>135090</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>117124</v>
+        <v>115019</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>154585</v>
+        <v>154472</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3287052979494663</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2849889343221216</v>
+        <v>0.2798676752152818</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3761421293013997</v>
+        <v>0.3758666640229497</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>124772</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108286</v>
+        <v>110676</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>137258</v>
+        <v>137470</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6137102953116573</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5326210410343596</v>
+        <v>0.5443763482219762</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6751228619777667</v>
+        <v>0.6761667124138885</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>144</v>
@@ -1704,19 +1704,19 @@
         <v>151114</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>137891</v>
+        <v>135944</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>163661</v>
+        <v>163376</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7276701340575077</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6639989613977376</v>
+        <v>0.6546229254334986</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7880881893143508</v>
+        <v>0.7867194286784841</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>269</v>
@@ -1725,19 +1725,19 @@
         <v>275886</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>256391</v>
+        <v>256504</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>293852</v>
+        <v>295957</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6712947020505338</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6238578706985998</v>
+        <v>0.6241333359770502</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7150110656778782</v>
+        <v>0.7201323247847178</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>123394</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>106424</v>
+        <v>106408</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>138658</v>
+        <v>139465</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.455646479026855</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3929828986831893</v>
+        <v>0.39292403613287</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5120109301421492</v>
+        <v>0.5149893118309374</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>62</v>
@@ -1850,19 +1850,19 @@
         <v>63114</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>49560</v>
+        <v>50630</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>76708</v>
+        <v>77390</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2269114347644377</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1781801351804905</v>
+        <v>0.1820267410359552</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2757852727373343</v>
+        <v>0.2782357832971241</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>184</v>
@@ -1871,19 +1871,19 @@
         <v>186508</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>165597</v>
+        <v>163971</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>209266</v>
+        <v>208406</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3397512240641862</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3016592831802648</v>
+        <v>0.2986964407820376</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.381207828037872</v>
+        <v>0.379641373081939</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>147417</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>132153</v>
+        <v>131346</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>164387</v>
+        <v>164403</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5443535209731449</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.4879890698578508</v>
+        <v>0.4850106881690625</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6070171013168112</v>
+        <v>0.6070759638671301</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>208</v>
@@ -1921,19 +1921,19 @@
         <v>215030</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>201436</v>
+        <v>200754</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>228584</v>
+        <v>227514</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7730885652355622</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7242147272626661</v>
+        <v>0.7217642167028759</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8218198648195099</v>
+        <v>0.8179732589640448</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>352</v>
@@ -1942,19 +1942,19 @@
         <v>362447</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>339689</v>
+        <v>340549</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>383358</v>
+        <v>384984</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6602487759358138</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6187921719621285</v>
+        <v>0.6203586269180613</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6983407168197353</v>
+        <v>0.7013035592179627</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>227691</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>203214</v>
+        <v>203108</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>251590</v>
+        <v>252034</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3702132200451623</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3304145923415684</v>
+        <v>0.3302429078891613</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4090713241705664</v>
+        <v>0.4097931003144865</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>158</v>
@@ -2067,19 +2067,19 @@
         <v>161353</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>139667</v>
+        <v>140001</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>183907</v>
+        <v>183105</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2528169480461331</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2188393710592876</v>
+        <v>0.2193621209247022</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2881572391047817</v>
+        <v>0.286900395273755</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>382</v>
@@ -2088,19 +2088,19 @@
         <v>389044</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>358176</v>
+        <v>358792</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>425405</v>
+        <v>422248</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3104288414831368</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2857983927327961</v>
+        <v>0.2862900226553579</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.339442550579269</v>
+        <v>0.3369235909949257</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>387336</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>363437</v>
+        <v>362993</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>411813</v>
+        <v>411919</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6297867799548377</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5909286758294338</v>
+        <v>0.5902068996855135</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6695854076584316</v>
+        <v>0.6697570921108387</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>463</v>
@@ -2138,19 +2138,19 @@
         <v>476866</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>454312</v>
+        <v>455114</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>498552</v>
+        <v>498218</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7471830519538669</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7118427608952185</v>
+        <v>0.7130996047262448</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7811606289407124</v>
+        <v>0.7806378790752971</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>837</v>
@@ -2159,19 +2159,19 @@
         <v>864202</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>827841</v>
+        <v>830998</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>895070</v>
+        <v>894454</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6895711585168632</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.660557449420731</v>
+        <v>0.6630764090050743</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7142016072672037</v>
+        <v>0.7137099773446421</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>296557</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>269219</v>
+        <v>272525</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>323988</v>
+        <v>322815</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3987075834872501</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3619535030747055</v>
+        <v>0.3663977342632594</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4355876503474153</v>
+        <v>0.4340105744272304</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>171</v>
@@ -2284,19 +2284,19 @@
         <v>178407</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>155676</v>
+        <v>155332</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>202371</v>
+        <v>203427</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2277019734436693</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.198690760523953</v>
+        <v>0.1982508692054037</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2582868436645136</v>
+        <v>0.2596350462423982</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>457</v>
@@ -2305,19 +2305,19 @@
         <v>474964</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>438116</v>
+        <v>434761</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>510268</v>
+        <v>510277</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3109813695793339</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2868552991362104</v>
+        <v>0.2846587642914668</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3340965883395571</v>
+        <v>0.3341028107544294</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>447238</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>419807</v>
+        <v>420980</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>474576</v>
+        <v>471270</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6012924165127499</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5644123496525847</v>
+        <v>0.5659894255727693</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6380464969252948</v>
+        <v>0.6336022657367405</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>574</v>
@@ -2355,19 +2355,19 @@
         <v>605104</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>581140</v>
+        <v>580084</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>627835</v>
+        <v>628179</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7722980265563307</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7417131563354865</v>
+        <v>0.7403649537576019</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8013092394760473</v>
+        <v>0.8017491307945966</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1024</v>
@@ -2376,19 +2376,19 @@
         <v>1052342</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1017038</v>
+        <v>1017029</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1089190</v>
+        <v>1092545</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6890186304206661</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6659034116604429</v>
+        <v>0.6658971892455707</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7131447008637897</v>
+        <v>0.7153412357085333</v>
       </c>
     </row>
     <row r="27">
@@ -2480,19 +2480,19 @@
         <v>1305261</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1247866</v>
+        <v>1252625</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1366133</v>
+        <v>1360075</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3984921505936019</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.380969642021169</v>
+        <v>0.3824223081344389</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4170760450911604</v>
+        <v>0.4152264714443021</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>814</v>
@@ -2501,19 +2501,19 @@
         <v>829803</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>779274</v>
+        <v>778464</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>881915</v>
+        <v>883055</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2455622932328739</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2306090796420667</v>
+        <v>0.2303695009626821</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2609835619689522</v>
+        <v>0.2613209926347024</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2086</v>
@@ -2522,19 +2522,19 @@
         <v>2135065</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2061780</v>
+        <v>2067145</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2223353</v>
+        <v>2212167</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3208357136936954</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3098232429060634</v>
+        <v>0.3106293652586773</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3341027434465323</v>
+        <v>0.3324219212670809</v>
       </c>
     </row>
     <row r="29">
@@ -2551,19 +2551,19 @@
         <v>1970240</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>1909368</v>
+        <v>1915426</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2027635</v>
+        <v>2022876</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6015078494063981</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.5829239549088396</v>
+        <v>0.584773528555698</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6190303579788311</v>
+        <v>0.6175776918655612</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2483</v>
@@ -2572,19 +2572,19 @@
         <v>2549394</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2497282</v>
+        <v>2496142</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2599923</v>
+        <v>2600733</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7544377067671261</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7390164380310477</v>
+        <v>0.7386790073652977</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7693909203579333</v>
+        <v>0.7696304990373179</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4424</v>
@@ -2593,19 +2593,19 @@
         <v>4519633</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4431345</v>
+        <v>4442531</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4592918</v>
+        <v>4587553</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6791642863063047</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6658972565534677</v>
+        <v>0.667578078732919</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6901767570939366</v>
+        <v>0.6893706347413227</v>
       </c>
     </row>
     <row r="30">
@@ -2941,19 +2941,19 @@
         <v>114232</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>96236</v>
+        <v>96855</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>131532</v>
+        <v>130778</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3875724052241171</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3265139463676972</v>
+        <v>0.3286147746697211</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4462679082008006</v>
+        <v>0.4437109217412276</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>82</v>
@@ -2962,19 +2962,19 @@
         <v>95977</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>78651</v>
+        <v>78753</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>112195</v>
+        <v>113924</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3341298503573611</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2738123395593958</v>
+        <v>0.2741671593013861</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.390589702412916</v>
+        <v>0.3966088124570445</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>192</v>
@@ -2983,19 +2983,19 @@
         <v>210209</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>187268</v>
+        <v>186671</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>236646</v>
+        <v>235373</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3611951641895031</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3217750327888299</v>
+        <v>0.3207501219611378</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4066203024965777</v>
+        <v>0.4044331446661631</v>
       </c>
     </row>
     <row r="5">
@@ -3012,19 +3012,19 @@
         <v>180506</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>163206</v>
+        <v>163960</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>198502</v>
+        <v>197883</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6124275947758828</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5537320917991994</v>
+        <v>0.5562890782587725</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6734860536323026</v>
+        <v>0.671385225330279</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>174</v>
@@ -3033,19 +3033,19 @@
         <v>191268</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>175050</v>
+        <v>173321</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>208594</v>
+        <v>208492</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6658701496426388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.609410297587084</v>
+        <v>0.6033911875429556</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7261876604406042</v>
+        <v>0.725832840698614</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>346</v>
@@ -3054,19 +3054,19 @@
         <v>371774</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>345337</v>
+        <v>346610</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>394715</v>
+        <v>395312</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6388048358104969</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5933796975034226</v>
+        <v>0.595566855333837</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6782249672111702</v>
+        <v>0.6792498780388623</v>
       </c>
     </row>
     <row r="6">
@@ -3158,19 +3158,19 @@
         <v>199515</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>174044</v>
+        <v>176370</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>223503</v>
+        <v>224272</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3946678704328502</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3442813783416026</v>
+        <v>0.3488836994996871</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4421181284527249</v>
+        <v>0.4436401877398576</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>132</v>
@@ -3179,19 +3179,19 @@
         <v>145152</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>126199</v>
+        <v>123486</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>168934</v>
+        <v>166049</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.277131883624718</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2409455167756791</v>
+        <v>0.2357656868817157</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.322537160166655</v>
+        <v>0.3170297733413851</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>314</v>
@@ -3200,19 +3200,19 @@
         <v>344667</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>314911</v>
+        <v>313662</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>375956</v>
+        <v>377348</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3348585830631679</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.305949024178342</v>
+        <v>0.3047359297039253</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.365256463941974</v>
+        <v>0.3666090499262939</v>
       </c>
     </row>
     <row r="8">
@@ -3229,19 +3229,19 @@
         <v>306012</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>282024</v>
+        <v>281255</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>331483</v>
+        <v>329157</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6053321295671499</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5578818715472752</v>
+        <v>0.5563598122601424</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6557186216583976</v>
+        <v>0.6511163005003128</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>348</v>
@@ -3250,19 +3250,19 @@
         <v>378613</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>354831</v>
+        <v>357716</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>397566</v>
+        <v>400279</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.722868116375282</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.677462839833345</v>
+        <v>0.6829702266586144</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7590544832243208</v>
+        <v>0.7642343131182843</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>638</v>
@@ -3271,19 +3271,19 @@
         <v>684625</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>653336</v>
+        <v>651944</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>714381</v>
+        <v>715630</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.665141416936832</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6347435360580262</v>
+        <v>0.6333909500737064</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6940509758216582</v>
+        <v>0.6952640702960748</v>
       </c>
     </row>
     <row r="9">
@@ -3375,19 +3375,19 @@
         <v>125143</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>108476</v>
+        <v>108632</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>142331</v>
+        <v>143199</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3861900304408548</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3347561300466188</v>
+        <v>0.3352367042320561</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4392298020098809</v>
+        <v>0.4419083464950965</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>79</v>
@@ -3396,19 +3396,19 @@
         <v>86447</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>69238</v>
+        <v>69501</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>102981</v>
+        <v>102626</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.254231123469345</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.203621655414465</v>
+        <v>0.2043935867371293</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3028557764117156</v>
+        <v>0.3018116645995859</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>203</v>
@@ -3417,19 +3417,19 @@
         <v>211591</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>188795</v>
+        <v>187674</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>236552</v>
+        <v>235867</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3186220887314524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2842952824174401</v>
+        <v>0.282607761541778</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3562105956473205</v>
+        <v>0.355178029057266</v>
       </c>
     </row>
     <row r="11">
@@ -3446,19 +3446,19 @@
         <v>198903</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>181715</v>
+        <v>180847</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>215570</v>
+        <v>215414</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6138099695591452</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5607701979901192</v>
+        <v>0.5580916535049035</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6652438699533816</v>
+        <v>0.6647632957679439</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>237</v>
@@ -3467,19 +3467,19 @@
         <v>253587</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>237053</v>
+        <v>237408</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>270796</v>
+        <v>270533</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.745768876530655</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6971442235882844</v>
+        <v>0.698188335400414</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.796378344585535</v>
+        <v>0.7956064132628702</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>432</v>
@@ -3488,19 +3488,19 @@
         <v>452489</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>427528</v>
+        <v>428213</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>475285</v>
+        <v>476406</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6813779112685476</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6437894043526794</v>
+        <v>0.6448219709427339</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7157047175825599</v>
+        <v>0.717392238458222</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>117238</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>98784</v>
+        <v>98681</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>138035</v>
+        <v>137191</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3134854515380853</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2641402635838022</v>
+        <v>0.2638662514093637</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3690957384509383</v>
+        <v>0.3668386819303864</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -3613,19 +3613,19 @@
         <v>101276</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>85308</v>
+        <v>84039</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>120947</v>
+        <v>118273</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2603821800053014</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2193283648305721</v>
+        <v>0.2160645121142042</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3109572024808254</v>
+        <v>0.3040832037450793</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>204</v>
@@ -3634,19 +3634,19 @@
         <v>218514</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>192808</v>
+        <v>193043</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>245356</v>
+        <v>245670</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2864128680378975</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.252719873803288</v>
+        <v>0.2530276000334259</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3215953679627863</v>
+        <v>0.3220074228178318</v>
       </c>
     </row>
     <row r="14">
@@ -3663,19 +3663,19 @@
         <v>256744</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>235947</v>
+        <v>236791</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>275198</v>
+        <v>275301</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6865145484619147</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.630904261549062</v>
+        <v>0.6331613180696141</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7358597364161978</v>
+        <v>0.7361337485906367</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>274</v>
@@ -3684,19 +3684,19 @@
         <v>287675</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>268004</v>
+        <v>270678</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>303643</v>
+        <v>304912</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7396178199946986</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6890427975191746</v>
+        <v>0.6959167962549206</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7806716351694279</v>
+        <v>0.7839354878857958</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>511</v>
@@ -3705,19 +3705,19 @@
         <v>544419</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>517577</v>
+        <v>517263</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>570125</v>
+        <v>569890</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7135871319621025</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6784046320372137</v>
+        <v>0.6779925771821681</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.747280126196712</v>
+        <v>0.7469723999665741</v>
       </c>
     </row>
     <row r="15">
@@ -3809,19 +3809,19 @@
         <v>88488</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>74627</v>
+        <v>73436</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>104257</v>
+        <v>103106</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4161847179651835</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3509905112539254</v>
+        <v>0.3453885035499952</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4903494072287518</v>
+        <v>0.4849370045493863</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>64</v>
@@ -3830,19 +3830,19 @@
         <v>65439</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>51666</v>
+        <v>50989</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78818</v>
+        <v>78883</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.298005837208548</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2352806090424712</v>
+        <v>0.2322014736751331</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3589322106983659</v>
+        <v>0.359228744346159</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>145</v>
@@ -3851,19 +3851,19 @@
         <v>153928</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>135237</v>
+        <v>133040</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>175206</v>
+        <v>175681</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3561419695712277</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3128976298096848</v>
+        <v>0.3078140190105293</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.405374078233621</v>
+        <v>0.4064721270828533</v>
       </c>
     </row>
     <row r="17">
@@ -3880,19 +3880,19 @@
         <v>124130</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108361</v>
+        <v>109512</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>137991</v>
+        <v>139182</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5838152820348165</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5096505927712481</v>
+        <v>0.5150629954506137</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6490094887460741</v>
+        <v>0.6546114964500047</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>148</v>
@@ -3901,19 +3901,19 @@
         <v>154152</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>140773</v>
+        <v>140708</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>167925</v>
+        <v>168602</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.701994162791452</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.641067789301634</v>
+        <v>0.6407712556538409</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7647193909575287</v>
+        <v>0.7677985263248669</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>263</v>
@@ -3922,19 +3922,19 @@
         <v>278281</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>257003</v>
+        <v>256528</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>296972</v>
+        <v>299169</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6438580304287723</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5946259217663791</v>
+        <v>0.5935278729171465</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6871023701903153</v>
+        <v>0.6921859809894707</v>
       </c>
     </row>
     <row r="18">
@@ -4026,19 +4026,19 @@
         <v>82830</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>68174</v>
+        <v>68565</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>99139</v>
+        <v>100588</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3023185237511979</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.248826898194534</v>
+        <v>0.250253615066156</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3618450634757225</v>
+        <v>0.3671353479109216</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -4047,19 +4047,19 @@
         <v>66879</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>53146</v>
+        <v>53323</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>81519</v>
+        <v>82018</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2388264137162057</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.189784727879106</v>
+        <v>0.1904177774604968</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.29110880363648</v>
+        <v>0.2928885853521054</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>145</v>
@@ -4068,19 +4068,19 @@
         <v>149708</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>130201</v>
+        <v>131013</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>173407</v>
+        <v>171821</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2702257913002891</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2350146389071375</v>
+        <v>0.2364800521369233</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3130025306571299</v>
+        <v>0.3101397509403501</v>
       </c>
     </row>
     <row r="20">
@@ -4097,19 +4097,19 @@
         <v>191151</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>174842</v>
+        <v>173393</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>205807</v>
+        <v>205416</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6976814762488021</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6381549365242773</v>
+        <v>0.6328646520890784</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7511731018054656</v>
+        <v>0.7497463849338438</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>205</v>
@@ -4118,19 +4118,19 @@
         <v>213152</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>198512</v>
+        <v>198013</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>226885</v>
+        <v>226708</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7611735862837943</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.70889119636352</v>
+        <v>0.7071114146478946</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8102152721208941</v>
+        <v>0.8095822225395032</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>385</v>
@@ -4139,19 +4139,19 @@
         <v>404304</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>380605</v>
+        <v>382191</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>423811</v>
+        <v>422999</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.729774208699711</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6869974693428705</v>
+        <v>0.6898602490596502</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7649853610928625</v>
+        <v>0.7635199478630769</v>
       </c>
     </row>
     <row r="21">
@@ -4243,19 +4243,19 @@
         <v>256593</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>232537</v>
+        <v>229007</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>281576</v>
+        <v>282317</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3871416486353992</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3508474676042144</v>
+        <v>0.3455206408823563</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4248363737796821</v>
+        <v>0.4259541499263528</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>174</v>
@@ -4264,19 +4264,19 @@
         <v>189783</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>166223</v>
+        <v>166943</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>219813</v>
+        <v>216053</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2735205598246677</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2395645075050879</v>
+        <v>0.2406035015713543</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3168008345590141</v>
+        <v>0.3113820418214618</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>415</v>
@@ -4285,19 +4285,19 @@
         <v>446376</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>412715</v>
+        <v>411516</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>484282</v>
+        <v>482285</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3290302326981177</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3042180895043704</v>
+        <v>0.3033347787814153</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3569716586847902</v>
+        <v>0.3554996902056737</v>
       </c>
     </row>
     <row r="23">
@@ -4314,19 +4314,19 @@
         <v>406195</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>381212</v>
+        <v>380471</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>430251</v>
+        <v>433781</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6128583513646008</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5751636262203179</v>
+        <v>0.5740458500736473</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6491525323957856</v>
+        <v>0.6544793591176439</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>462</v>
@@ -4335,19 +4335,19 @@
         <v>504070</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>474040</v>
+        <v>477800</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>527630</v>
+        <v>526910</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7264794401753323</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6831991654409858</v>
+        <v>0.6886179581785382</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7604354924949122</v>
+        <v>0.7593964984286458</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>839</v>
@@ -4356,19 +4356,19 @@
         <v>910265</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>872359</v>
+        <v>874356</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>943926</v>
+        <v>945125</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6709697673018823</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6430283413152098</v>
+        <v>0.6445003097943262</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6957819104956297</v>
+        <v>0.6966652212185844</v>
       </c>
     </row>
     <row r="24">
@@ -4460,19 +4460,19 @@
         <v>278596</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>252497</v>
+        <v>251345</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>305224</v>
+        <v>307828</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3580610174598806</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3245180469598943</v>
+        <v>0.3230367110566172</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3922837041168515</v>
+        <v>0.395630591028893</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>189</v>
@@ -4481,19 +4481,19 @@
         <v>207867</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>180027</v>
+        <v>182971</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>232195</v>
+        <v>233504</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2526166018043158</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2187831704800919</v>
+        <v>0.2223600859135858</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2821809921804738</v>
+        <v>0.2837721515014633</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>448</v>
@@ -4502,19 +4502,19 @@
         <v>486464</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>447607</v>
+        <v>448203</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>525776</v>
+        <v>523548</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3038638278840889</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2795925126196147</v>
+        <v>0.2799651259822015</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3284202304859892</v>
+        <v>0.3270279935689228</v>
       </c>
     </row>
     <row r="26">
@@ -4531,19 +4531,19 @@
         <v>499473</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>472845</v>
+        <v>470241</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>525572</v>
+        <v>526724</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6419389825401194</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6077162958831483</v>
+        <v>0.6043694089711071</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6754819530401056</v>
+        <v>0.6769632889433829</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>567</v>
@@ -4552,19 +4552,19 @@
         <v>614990</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>590662</v>
+        <v>589353</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>642830</v>
+        <v>639886</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7473833981956842</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7178190078195261</v>
+        <v>0.7162278484985367</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7812168295199081</v>
+        <v>0.7776399140864146</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1024</v>
@@ -4573,19 +4573,19 @@
         <v>1114462</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1075150</v>
+        <v>1077378</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1153319</v>
+        <v>1152723</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6961361721159112</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6715797695140108</v>
+        <v>0.6729720064310769</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7204074873803853</v>
+        <v>0.7200348740177984</v>
       </c>
     </row>
     <row r="27">
@@ -4677,19 +4677,19 @@
         <v>1262636</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1205043</v>
+        <v>1207148</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1324394</v>
+        <v>1322517</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3685721713591514</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3517604048391249</v>
+        <v>0.3523748024990001</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3865999470064571</v>
+        <v>0.3860519241670833</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>881</v>
@@ -4698,19 +4698,19 @@
         <v>958821</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>905199</v>
+        <v>902419</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>1019106</v>
+        <v>1012042</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.269609865333557</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2545320334610676</v>
+        <v>0.2537503818183868</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2865613260194423</v>
+        <v>0.2845751344166443</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>2066</v>
@@ -4719,19 +4719,19 @@
         <v>2221457</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2141506</v>
+        <v>2144027</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2309145</v>
+        <v>2306555</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3181656287804336</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.3067147429424985</v>
+        <v>0.3070758325793712</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3307246937603189</v>
+        <v>0.3303537794642027</v>
       </c>
     </row>
     <row r="29">
@@ -4748,19 +4748,19 @@
         <v>2163113</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2101355</v>
+        <v>2103232</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2220706</v>
+        <v>2218601</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6314278286408486</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6134000529935431</v>
+        <v>0.6139480758329168</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6482395951608751</v>
+        <v>0.647625197501</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2415</v>
@@ -4769,19 +4769,19 @@
         <v>2597506</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2537221</v>
+        <v>2544285</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2651128</v>
+        <v>2653908</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7303901346664431</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.713438673980557</v>
+        <v>0.7154248655833557</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7454679665389323</v>
+        <v>0.7462496181816133</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4438</v>
@@ -4790,19 +4790,19 @@
         <v>4760619</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4672931</v>
+        <v>4675521</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4840570</v>
+        <v>4838049</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6818343712195664</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6692753062396811</v>
+        <v>0.6696462205357973</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6932852570575015</v>
+        <v>0.6929241674206289</v>
       </c>
     </row>
     <row r="30">
@@ -5138,19 +5138,19 @@
         <v>106331</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>89511</v>
+        <v>90169</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>124210</v>
+        <v>123049</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3619643406223501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3047060171520959</v>
+        <v>0.3069453772027539</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4228278575834483</v>
+        <v>0.4188752516938808</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -5159,19 +5159,19 @@
         <v>73714</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>59949</v>
+        <v>59222</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>90981</v>
+        <v>89513</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2553269152843574</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2076495397860889</v>
+        <v>0.2051321419634563</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3151364491497499</v>
+        <v>0.3100526868826073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>168</v>
@@ -5180,19 +5180,19 @@
         <v>180045</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>157300</v>
+        <v>153754</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>202735</v>
+        <v>202034</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3091086369981988</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2700587894560576</v>
+        <v>0.2639720569709981</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3480638986427715</v>
+        <v>0.3468610670835894</v>
       </c>
     </row>
     <row r="5">
@@ -5209,19 +5209,19 @@
         <v>187430</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>169551</v>
+        <v>170712</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>204250</v>
+        <v>203592</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6380356593776499</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.577172142416552</v>
+        <v>0.5811247483061193</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6952939828479046</v>
+        <v>0.6930546227972461</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>204</v>
@@ -5230,19 +5230,19 @@
         <v>214989</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>197722</v>
+        <v>199190</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>228754</v>
+        <v>229481</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7446730847156425</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6848635508502501</v>
+        <v>0.6899473131173925</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7923504602139108</v>
+        <v>0.7948678580365437</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>375</v>
@@ -5251,19 +5251,19 @@
         <v>402419</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>379729</v>
+        <v>380430</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>425164</v>
+        <v>428710</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6908913630018011</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6519361013572285</v>
+        <v>0.6531389329164106</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7299412105439425</v>
+        <v>0.7360279430290019</v>
       </c>
     </row>
     <row r="6">
@@ -5355,19 +5355,19 @@
         <v>209041</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>188215</v>
+        <v>186161</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>231434</v>
+        <v>231242</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4166568461059128</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.375146860173872</v>
+        <v>0.3710531273401255</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4612894916299427</v>
+        <v>0.4609058487255014</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>134</v>
@@ -5376,19 +5376,19 @@
         <v>140848</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>118810</v>
+        <v>121378</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>159552</v>
+        <v>160138</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2704014315120257</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2280912126032569</v>
+        <v>0.2330216687303114</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3063087704492884</v>
+        <v>0.3074335655005928</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>329</v>
@@ -5397,19 +5397,19 @@
         <v>349890</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>320213</v>
+        <v>318500</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>383269</v>
+        <v>379960</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3421578714472435</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3131369900519734</v>
+        <v>0.3114620471769159</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.37479946468518</v>
+        <v>0.3715636587688736</v>
       </c>
     </row>
     <row r="8">
@@ -5426,19 +5426,19 @@
         <v>292670</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>270277</v>
+        <v>270469</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>313496</v>
+        <v>315550</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5833431538940872</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5387105083700573</v>
+        <v>0.5390941512744989</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.624853139826128</v>
+        <v>0.6289468726598748</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>348</v>
@@ -5447,19 +5447,19 @@
         <v>380038</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>361334</v>
+        <v>360748</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>402076</v>
+        <v>399508</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7295985684879742</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6936912295507116</v>
+        <v>0.6925664344994074</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7719087873967431</v>
+        <v>0.7669783312696888</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>627</v>
@@ -5468,19 +5468,19 @@
         <v>672707</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>639328</v>
+        <v>642637</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>702384</v>
+        <v>704097</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6578421285527566</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6252005353148201</v>
+        <v>0.6284363412311268</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.686863009948027</v>
+        <v>0.6885379528230841</v>
       </c>
     </row>
     <row r="9">
@@ -5572,19 +5572,19 @@
         <v>96331</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>81402</v>
+        <v>81430</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>112905</v>
+        <v>113866</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3023891223885004</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2555268362168266</v>
+        <v>0.255614511673097</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3544187808554471</v>
+        <v>0.3574327049174115</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -5593,19 +5593,19 @@
         <v>81403</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66272</v>
+        <v>65716</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>95469</v>
+        <v>97205</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.242048269451268</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1970574679787342</v>
+        <v>0.1954025471139759</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2838719234281922</v>
+        <v>0.2890352995003008</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>183</v>
@@ -5614,19 +5614,19 @@
         <v>177734</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>158162</v>
+        <v>156574</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>200079</v>
+        <v>202470</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2714012193058363</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.241514861146699</v>
+        <v>0.2390903412388136</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3055236517860644</v>
+        <v>0.3091741562053482</v>
       </c>
     </row>
     <row r="11">
@@ -5643,19 +5643,19 @@
         <v>222234</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>205660</v>
+        <v>204699</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>237163</v>
+        <v>237135</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6976108776114996</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6455812191445527</v>
+        <v>0.6425672950825885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7444731637831732</v>
+        <v>0.7443854883269032</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>249</v>
@@ -5664,19 +5664,19 @@
         <v>254906</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>240840</v>
+        <v>239104</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>270037</v>
+        <v>270593</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.757951730548732</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7161280765718078</v>
+        <v>0.7109647004996993</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8029425320212658</v>
+        <v>0.8045974528860241</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>484</v>
@@ -5685,19 +5685,19 @@
         <v>477140</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>454795</v>
+        <v>452404</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>496712</v>
+        <v>498300</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7285987806941637</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6944763482139354</v>
+        <v>0.6908258437946517</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.758485138853301</v>
+        <v>0.7609096587611863</v>
       </c>
     </row>
     <row r="12">
@@ -5789,19 +5789,19 @@
         <v>139287</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>119292</v>
+        <v>120998</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157996</v>
+        <v>159884</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3764868899381639</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3224428693855744</v>
+        <v>0.3270545405761193</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4270572112008059</v>
+        <v>0.4321608259923127</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>101</v>
@@ -5810,19 +5810,19 @@
         <v>108757</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>89149</v>
+        <v>90199</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>126892</v>
+        <v>127120</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2817555711039104</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.230956069195597</v>
+        <v>0.233678627319666</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3287383483816649</v>
+        <v>0.3293274701358817</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>230</v>
@@ -5831,19 +5831,19 @@
         <v>248044</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>222181</v>
+        <v>221126</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>273893</v>
+        <v>276593</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.328116632064523</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2939052070647897</v>
+        <v>0.2925087523298938</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3623102087178073</v>
+        <v>0.3658827985085915</v>
       </c>
     </row>
     <row r="14">
@@ -5860,19 +5860,19 @@
         <v>230677</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>211968</v>
+        <v>210080</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>250672</v>
+        <v>248966</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6235131100618361</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5729427887991941</v>
+        <v>0.5678391740076874</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6775571306144254</v>
+        <v>0.6729454594238808</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>256</v>
@@ -5881,19 +5881,19 @@
         <v>277241</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>259106</v>
+        <v>258878</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>296849</v>
+        <v>295799</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7182444288960896</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6712616516183351</v>
+        <v>0.6706725298641183</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7690439308044028</v>
+        <v>0.7663213726803341</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>481</v>
@@ -5902,19 +5902,19 @@
         <v>507918</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>482069</v>
+        <v>479369</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>533781</v>
+        <v>534836</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6718833679354771</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6376897912821933</v>
+        <v>0.6341172014914086</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7060947929352105</v>
+        <v>0.7074912476701062</v>
       </c>
     </row>
     <row r="15">
@@ -6006,19 +6006,19 @@
         <v>85131</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>70817</v>
+        <v>71315</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>100205</v>
+        <v>100827</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4030416011637373</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3352726614719509</v>
+        <v>0.3376298992674674</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4744101427805098</v>
+        <v>0.4773551021079643</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>60</v>
@@ -6027,19 +6027,19 @@
         <v>56643</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>43931</v>
+        <v>44816</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>69908</v>
+        <v>70532</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.259132262533318</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2009772397361512</v>
+        <v>0.205024298595553</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3198196338977598</v>
+        <v>0.3226739430806057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>142</v>
@@ -6048,19 +6048,19 @@
         <v>141774</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>120618</v>
+        <v>122486</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>161600</v>
+        <v>161533</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.329853780716831</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2806331833752189</v>
+        <v>0.2849783842991657</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3759815781744583</v>
+        <v>0.3758259911650237</v>
       </c>
     </row>
     <row r="17">
@@ -6077,19 +6077,19 @@
         <v>126090</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>111016</v>
+        <v>110394</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>140404</v>
+        <v>139906</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5969583988362627</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5255898572194903</v>
+        <v>0.5226448978920357</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.664727338528049</v>
+        <v>0.6623701007325327</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>163</v>
@@ -6098,19 +6098,19 @@
         <v>161944</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>148679</v>
+        <v>148055</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>174656</v>
+        <v>173771</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.740867737466682</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6801803661022403</v>
+        <v>0.6773260569193946</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7990227602638493</v>
+        <v>0.7949757014044472</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>293</v>
@@ -6119,19 +6119,19 @@
         <v>288034</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>268208</v>
+        <v>268275</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>309190</v>
+        <v>307322</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.670146219283169</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6240184218255415</v>
+        <v>0.6241740088349762</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7193668166247811</v>
+        <v>0.7150216157008339</v>
       </c>
     </row>
     <row r="18">
@@ -6223,19 +6223,19 @@
         <v>88230</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>72893</v>
+        <v>73748</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>104398</v>
+        <v>103642</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3353189246955385</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2770288702590437</v>
+        <v>0.2802801562651467</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3967638578200474</v>
+        <v>0.3938916391465125</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>71</v>
@@ -6244,19 +6244,19 @@
         <v>73058</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>59600</v>
+        <v>59504</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>90835</v>
+        <v>88072</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2674992022600141</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2182239491646378</v>
+        <v>0.2178699000924394</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3325881327561677</v>
+        <v>0.3224707410047542</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>156</v>
@@ -6265,19 +6265,19 @@
         <v>161288</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>142164</v>
+        <v>141146</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>182201</v>
+        <v>183043</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.300777203415509</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2651142020136563</v>
+        <v>0.2632146800128091</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3397757892659958</v>
+        <v>0.3413470650265786</v>
       </c>
     </row>
     <row r="20">
@@ -6294,19 +6294,19 @@
         <v>174893</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>158725</v>
+        <v>159481</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>190230</v>
+        <v>189375</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6646810753044615</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6032361421799526</v>
+        <v>0.6061083608534872</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7229711297409563</v>
+        <v>0.719719843734853</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>192</v>
@@ -6315,19 +6315,19 @@
         <v>200057</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>182280</v>
+        <v>185043</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>213515</v>
+        <v>213611</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7325007977399859</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6674118672438326</v>
+        <v>0.677529258995246</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7817760508353624</v>
+        <v>0.7821300999075608</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>366</v>
@@ -6336,19 +6336,19 @@
         <v>374950</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>354037</v>
+        <v>353195</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>394074</v>
+        <v>395092</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.699222796584491</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6602242107340041</v>
+        <v>0.6586529349734213</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7348857979863436</v>
+        <v>0.7367853199871905</v>
       </c>
     </row>
     <row r="21">
@@ -6440,19 +6440,19 @@
         <v>196729</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>173297</v>
+        <v>171847</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>221206</v>
+        <v>222199</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3001263085251201</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2643800030872708</v>
+        <v>0.2621677661187848</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3374686429087441</v>
+        <v>0.3389836224493604</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>167</v>
@@ -6461,19 +6461,19 @@
         <v>173267</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>149871</v>
+        <v>149715</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>194975</v>
+        <v>197034</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2513528246268104</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2174127110852898</v>
+        <v>0.2171862961060783</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2828428283354438</v>
+        <v>0.2858297151838854</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>335</v>
@@ -6482,19 +6482,19 @@
         <v>369996</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>333922</v>
+        <v>336155</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>400530</v>
+        <v>409140</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2751256878394659</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2483016760564204</v>
+        <v>0.2499621361550119</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2978302620234682</v>
+        <v>0.3042327351890305</v>
       </c>
     </row>
     <row r="23">
@@ -6511,19 +6511,19 @@
         <v>458757</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>434280</v>
+        <v>433287</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>482189</v>
+        <v>483639</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.69987369147488</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.662531357091256</v>
+        <v>0.6610163775506397</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7356199969127293</v>
+        <v>0.7378322338812152</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>477</v>
@@ -6532,19 +6532,19 @@
         <v>516072</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>494364</v>
+        <v>492305</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>539468</v>
+        <v>539624</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7486471753731896</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7171571716645562</v>
+        <v>0.7141702848161143</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7825872889147102</v>
+        <v>0.7828137038939216</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>888</v>
@@ -6553,19 +6553,19 @@
         <v>974829</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>944295</v>
+        <v>935685</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1010903</v>
+        <v>1008670</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7248743121605341</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7021697379765315</v>
+        <v>0.6957672648109695</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7516983239435796</v>
+        <v>0.7500378638449881</v>
       </c>
     </row>
     <row r="24">
@@ -6657,19 +6657,19 @@
         <v>255058</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>229774</v>
+        <v>227906</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>283731</v>
+        <v>280768</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3275929161351541</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2951184095599743</v>
+        <v>0.2927190097541907</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3644199455347222</v>
+        <v>0.3606141943039228</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>204</v>
@@ -6678,19 +6678,19 @@
         <v>214288</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>188411</v>
+        <v>191468</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>239278</v>
+        <v>240402</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2593766946169654</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2280546337031535</v>
+        <v>0.2317544242896866</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2896240722738817</v>
+        <v>0.2909851767432761</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>444</v>
@@ -6699,19 +6699,19 @@
         <v>469347</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>432284</v>
+        <v>432772</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>508030</v>
+        <v>506056</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2924734325635058</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2693779087967666</v>
+        <v>0.2696820434473863</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3165788775017832</v>
+        <v>0.3153489274723229</v>
       </c>
     </row>
     <row r="26">
@@ -6728,19 +6728,19 @@
         <v>523525</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>494852</v>
+        <v>497815</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>548809</v>
+        <v>550677</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6724070838648459</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.635580054465278</v>
+        <v>0.6393858056960774</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7048815904400261</v>
+        <v>0.7072809902458094</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>551</v>
@@ -6749,19 +6749,19 @@
         <v>611879</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>586889</v>
+        <v>585765</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>637756</v>
+        <v>634699</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.7406233053830346</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.7103759277261182</v>
+        <v>0.7090148232567238</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7719453662968466</v>
+        <v>0.7682455757103137</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1061</v>
@@ -6770,19 +6770,19 @@
         <v>1135403</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1096720</v>
+        <v>1098694</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1172466</v>
+        <v>1171978</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7075265674364942</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6834211224982167</v>
+        <v>0.6846510725276771</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7306220912032333</v>
+        <v>0.7303179565526136</v>
       </c>
     </row>
     <row r="27">
@@ -6874,19 +6874,19 @@
         <v>1176137</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1119128</v>
+        <v>1116145</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>1231797</v>
+        <v>1230954</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.3466962845575992</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.3298913901695234</v>
+        <v>0.3290120175879894</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3631035297314275</v>
+        <v>0.3628549158123226</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>893</v>
@@ -6895,19 +6895,19 @@
         <v>921979</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>869446</v>
+        <v>867694</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>975772</v>
+        <v>980415</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2605119304646502</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.2456685304786344</v>
+        <v>0.2451734870609874</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2757115418303183</v>
+        <v>0.2770235842803463</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1987</v>
@@ -6916,19 +6916,19 @@
         <v>2098116</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>2015935</v>
+        <v>2024341</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>2177136</v>
+        <v>2182727</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.3026921600306471</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2908360125738308</v>
+        <v>0.292048827185374</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3140923339294397</v>
+        <v>0.3148988635813798</v>
       </c>
     </row>
     <row r="29">
@@ -6945,19 +6945,19 @@
         <v>2216277</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2160617</v>
+        <v>2161460</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2273286</v>
+        <v>2276269</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.6533037154424008</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6368964702685724</v>
+        <v>0.6371450841876773</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.6701086098304765</v>
+        <v>0.6709879824120105</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>2440</v>
@@ -6966,19 +6966,19 @@
         <v>2617124</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2563331</v>
+        <v>2558688</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>2669657</v>
+        <v>2671409</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7394880695353498</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7242884581696817</v>
+        <v>0.7229764157196541</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.7543314695213658</v>
+        <v>0.7548265129390126</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>4575</v>
@@ -6987,19 +6987,19 @@
         <v>4833401</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>4754381</v>
+        <v>4748790</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4915582</v>
+        <v>4907176</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6973078399693529</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6859076660705602</v>
+        <v>0.6851011364186201</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.709163987426169</v>
+        <v>0.7079511728146259</v>
       </c>
     </row>
     <row r="30">
@@ -7335,19 +7335,19 @@
         <v>75950</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59013</v>
+        <v>60927</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>92623</v>
+        <v>94090</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2382049259649349</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1850847027701628</v>
+        <v>0.1910871163910575</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2904943308850426</v>
+        <v>0.2950948281028629</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>115</v>
@@ -7356,19 +7356,19 @@
         <v>66333</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>54691</v>
+        <v>56099</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>79037</v>
+        <v>78235</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2098752409768903</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1730399273190198</v>
+        <v>0.177493031278212</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2500691124501425</v>
+        <v>0.247532245427113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>189</v>
@@ -7377,19 +7377,19 @@
         <v>142284</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>123278</v>
+        <v>122381</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>163758</v>
+        <v>161414</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2241022091479093</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1941677622799313</v>
+        <v>0.1927541174655321</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.25792408859705</v>
+        <v>0.2542332969606408</v>
       </c>
     </row>
     <row r="5">
@@ -7406,19 +7406,19 @@
         <v>242895</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>226222</v>
+        <v>224755</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>259832</v>
+        <v>257918</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.761795074035065</v>
+        <v>0.7617950740350651</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7095056691149575</v>
+        <v>0.7049051718971372</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.814915297229837</v>
+        <v>0.8089128836089426</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>423</v>
@@ -7427,19 +7427,19 @@
         <v>249728</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>237024</v>
+        <v>237826</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>261370</v>
+        <v>259962</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7901247590231099</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7499308875498577</v>
+        <v>0.7524677545728872</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8269600726809803</v>
+        <v>0.822506968721788</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>680</v>
@@ -7448,19 +7448,19 @@
         <v>492622</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>471148</v>
+        <v>473492</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>511628</v>
+        <v>512525</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7758977908520909</v>
+        <v>0.7758977908520908</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7420759114029507</v>
+        <v>0.7457667030393591</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.805832237720069</v>
+        <v>0.8072458825344677</v>
       </c>
     </row>
     <row r="6">
@@ -7552,19 +7552,19 @@
         <v>136735</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>113561</v>
+        <v>107794</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>164833</v>
+        <v>162184</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2576751206293122</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2140047718446677</v>
+        <v>0.2031365170332769</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3106260555939131</v>
+        <v>0.3056346701019641</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>130</v>
@@ -7573,19 +7573,19 @@
         <v>103279</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>86714</v>
+        <v>87636</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>120116</v>
+        <v>121349</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1889847725424723</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1586727330120954</v>
+        <v>0.1603613196088643</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2197941728255511</v>
+        <v>0.2220491744654872</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>222</v>
@@ -7594,19 +7594,19 @@
         <v>240014</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>210289</v>
+        <v>211485</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>270912</v>
+        <v>273233</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2228246464676114</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1952287866011011</v>
+        <v>0.1963390941868921</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2515104420275319</v>
+        <v>0.2536646488262799</v>
       </c>
     </row>
     <row r="8">
@@ -7623,19 +7623,19 @@
         <v>393912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>365814</v>
+        <v>368463</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>417086</v>
+        <v>422853</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7423248793706878</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.689373944406087</v>
+        <v>0.694365329898036</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7859952281553325</v>
+        <v>0.796863482966723</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>587</v>
@@ -7644,19 +7644,19 @@
         <v>443215</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>426378</v>
+        <v>425145</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>459780</v>
+        <v>458858</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8110152274575276</v>
+        <v>0.8110152274575277</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7802058271744489</v>
+        <v>0.7779508255345126</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8413272669879046</v>
+        <v>0.8396386803911355</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>877</v>
@@ -7665,19 +7665,19 @@
         <v>837127</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>806229</v>
+        <v>803908</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>866852</v>
+        <v>865656</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7771753535323888</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7484895579724682</v>
+        <v>0.7463353511737201</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8047712133988988</v>
+        <v>0.8036609058131078</v>
       </c>
     </row>
     <row r="9">
@@ -7769,19 +7769,19 @@
         <v>79561</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>65442</v>
+        <v>65566</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>94756</v>
+        <v>96184</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2517811047573517</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2070983455759561</v>
+        <v>0.2074934795149166</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2998667420175532</v>
+        <v>0.3043861804672953</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>92</v>
@@ -7790,19 +7790,19 @@
         <v>64635</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53761</v>
+        <v>53140</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>78530</v>
+        <v>79150</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1813635007163832</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.150852157525538</v>
+        <v>0.149110209133047</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2203533531755233</v>
+        <v>0.2220932241035765</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>178</v>
@@ -7811,19 +7811,19 @@
         <v>144196</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>126587</v>
+        <v>124232</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>164513</v>
+        <v>164392</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2144573959005603</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1882681041413191</v>
+        <v>0.1847660106014845</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2446750733542045</v>
+        <v>0.2444941232776069</v>
       </c>
     </row>
     <row r="11">
@@ -7840,19 +7840,19 @@
         <v>236432</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>221237</v>
+        <v>219809</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>250551</v>
+        <v>250427</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7482188952426483</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7001332579824467</v>
+        <v>0.6956138195327051</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.792901654424044</v>
+        <v>0.7925065204850835</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>444</v>
@@ -7861,19 +7861,19 @@
         <v>291746</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>277851</v>
+        <v>277231</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>302620</v>
+        <v>303241</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.8186364992836166</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7796466468244772</v>
+        <v>0.7779067758964237</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8491478424744621</v>
+        <v>0.8508897908669533</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>718</v>
@@ -7882,19 +7882,19 @@
         <v>528179</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>507862</v>
+        <v>507983</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>545788</v>
+        <v>548143</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7855426040994398</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7553249266457955</v>
+        <v>0.7555058767223929</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8117318958586807</v>
+        <v>0.8152339893985153</v>
       </c>
     </row>
     <row r="12">
@@ -7986,19 +7986,19 @@
         <v>92572</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>72024</v>
+        <v>71737</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>119910</v>
+        <v>118861</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2480866207564806</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.193018728449997</v>
+        <v>0.1922507017797575</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.321349453113839</v>
+        <v>0.3185381636363206</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>91</v>
@@ -8007,19 +8007,19 @@
         <v>80223</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>65367</v>
+        <v>64008</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>98375</v>
+        <v>98144</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1901198577288332</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1549134019085944</v>
+        <v>0.1516915395765133</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2331368140103415</v>
+        <v>0.232589879233296</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>153</v>
@@ -8028,19 +8028,19 @@
         <v>172796</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>146580</v>
+        <v>147711</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>203258</v>
+        <v>203370</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2173237823194817</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1843523243691246</v>
+        <v>0.1857746389085532</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2556355805461138</v>
+        <v>0.2557764238127089</v>
       </c>
     </row>
     <row r="14">
@@ -8057,19 +8057,19 @@
         <v>280573</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>253235</v>
+        <v>254284</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>301121</v>
+        <v>301408</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7519133792435195</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6786505468861612</v>
+        <v>0.6814618363636793</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8069812715500031</v>
+        <v>0.8077492982202424</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>508</v>
@@ -8078,19 +8078,19 @@
         <v>341738</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>323586</v>
+        <v>323817</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>356594</v>
+        <v>357953</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.8098801422711669</v>
+        <v>0.8098801422711668</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7668631859896586</v>
+        <v>0.767410120766704</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8450865980914056</v>
+        <v>0.8483084604234865</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>738</v>
@@ -8099,19 +8099,19 @@
         <v>622311</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>591849</v>
+        <v>591737</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>648527</v>
+        <v>647396</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.7826762176805183</v>
+        <v>0.7826762176805182</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7443644194538862</v>
+        <v>0.7442235761872912</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8156476756308754</v>
+        <v>0.8142253610914468</v>
       </c>
     </row>
     <row r="15">
@@ -8203,19 +8203,19 @@
         <v>41121</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>32974</v>
+        <v>31694</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>52428</v>
+        <v>52103</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1999406945755478</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1603267042443932</v>
+        <v>0.1541065063300679</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2549216240686827</v>
+        <v>0.2533411845550071</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>69</v>
@@ -8224,19 +8224,19 @@
         <v>32172</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>24775</v>
+        <v>24992</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>39595</v>
+        <v>41427</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1415940899171621</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1090386743601453</v>
+        <v>0.1099948334886457</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1742605199772786</v>
+        <v>0.1823250810703554</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -8245,19 +8245,19 @@
         <v>73293</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>62049</v>
+        <v>60719</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87620</v>
+        <v>85685</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1693150617541495</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1433408597354857</v>
+        <v>0.1402679669293195</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2024127856751943</v>
+        <v>0.1979422809754426</v>
       </c>
     </row>
     <row r="17">
@@ -8274,19 +8274,19 @@
         <v>164544</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>153237</v>
+        <v>153562</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>172691</v>
+        <v>173971</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.8000593054244522</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7450783759313172</v>
+        <v>0.7466588154449928</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8396732957556069</v>
+        <v>0.8458934936699319</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>423</v>
@@ -8295,19 +8295,19 @@
         <v>195043</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>187620</v>
+        <v>185788</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>202440</v>
+        <v>202223</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8584059100828381</v>
+        <v>0.8584059100828377</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8257394800227215</v>
+        <v>0.8176749189296446</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8909613256398548</v>
+        <v>0.8900051665113544</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>645</v>
@@ -8316,19 +8316,19 @@
         <v>359586</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>345259</v>
+        <v>347194</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>370830</v>
+        <v>372160</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8306849382458505</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7975872143248054</v>
+        <v>0.8020577190245572</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8566591402645142</v>
+        <v>0.8597320330706802</v>
       </c>
     </row>
     <row r="18">
@@ -8420,19 +8420,19 @@
         <v>75975</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>61885</v>
+        <v>63631</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>89561</v>
+        <v>92126</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2806544521865387</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2286039742142464</v>
+        <v>0.2350541064481423</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3308416026543257</v>
+        <v>0.3403166786112312</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>77</v>
@@ -8441,19 +8441,19 @@
         <v>48886</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>39436</v>
+        <v>38945</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>59745</v>
+        <v>59228</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1853479947328306</v>
+        <v>0.1853479947328305</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1495222421152161</v>
+        <v>0.1476588612917062</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2265224548485566</v>
+        <v>0.2245610168041823</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>171</v>
@@ -8462,19 +8462,19 @@
         <v>124861</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>108793</v>
+        <v>108205</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>143520</v>
+        <v>142114</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2336214949606182</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2035588943263971</v>
+        <v>0.2024570226213592</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2685335418604856</v>
+        <v>0.2659032781240152</v>
       </c>
     </row>
     <row r="20">
@@ -8491,19 +8491,19 @@
         <v>194732</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>181146</v>
+        <v>178581</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>208822</v>
+        <v>207076</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7193455478134614</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6691583973456744</v>
+        <v>0.6596833213887688</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7713960257857533</v>
+        <v>0.7649458935518576</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>383</v>
@@ -8512,19 +8512,19 @@
         <v>214864</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>204005</v>
+        <v>204522</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>224314</v>
+        <v>224805</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.8146520052671696</v>
+        <v>0.8146520052671692</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7734775451514435</v>
+        <v>0.7754389831958178</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8504777578847839</v>
+        <v>0.8523411387082939</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>660</v>
@@ -8533,19 +8533,19 @@
         <v>409596</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>390937</v>
+        <v>392343</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>425664</v>
+        <v>426252</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.7663785050393818</v>
+        <v>0.7663785050393819</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7314664581395146</v>
+        <v>0.734096721875985</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.796441105673603</v>
+        <v>0.7975429773786409</v>
       </c>
     </row>
     <row r="21">
@@ -8637,19 +8637,19 @@
         <v>190195</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>162938</v>
+        <v>165329</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>219182</v>
+        <v>217824</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2651075976878159</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2271142530321331</v>
+        <v>0.2304469151970719</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3055106521527334</v>
+        <v>0.3036185927079236</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>217</v>
@@ -8658,19 +8658,19 @@
         <v>176378</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>155010</v>
+        <v>155621</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>199561</v>
+        <v>199746</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2296035362726239</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2017872866634878</v>
+        <v>0.2025823735423079</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2597820089986344</v>
+        <v>0.2600235652377796</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>372</v>
@@ -8679,19 +8679,19 @@
         <v>366573</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>332897</v>
+        <v>329755</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>401209</v>
+        <v>398648</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2467490489063666</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2240806955757239</v>
+        <v>0.221966025792009</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2700633649763901</v>
+        <v>0.2683391235835992</v>
       </c>
     </row>
     <row r="23">
@@ -8708,19 +8708,19 @@
         <v>527232</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>498245</v>
+        <v>499603</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>554489</v>
+        <v>552098</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.734892402312184</v>
+        <v>0.7348924023121839</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6944893478472663</v>
+        <v>0.6963814072920764</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7728857469678669</v>
+        <v>0.7695530848029282</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>740</v>
@@ -8729,19 +8729,19 @@
         <v>591807</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>568624</v>
+        <v>568439</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>613175</v>
+        <v>612564</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.770396463727376</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7402179910013658</v>
+        <v>0.7399764347622213</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7982127133365124</v>
+        <v>0.7974176264576922</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1182</v>
@@ -8750,19 +8750,19 @@
         <v>1119039</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1084403</v>
+        <v>1086964</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1152715</v>
+        <v>1155857</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7532509510936333</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7299366350236096</v>
+        <v>0.7316608764164008</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.775919304424276</v>
+        <v>0.7780339742079914</v>
       </c>
     </row>
     <row r="24">
@@ -8854,19 +8854,19 @@
         <v>209638</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>180044</v>
+        <v>182807</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>233934</v>
+        <v>235749</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2630571335408584</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2259216610757568</v>
+        <v>0.2293886563548672</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.293544242697366</v>
+        <v>0.2958211180347996</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>161</v>
@@ -8875,19 +8875,19 @@
         <v>135308</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>117569</v>
+        <v>117120</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>157988</v>
+        <v>156510</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1627601102591645</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1414221631550979</v>
+        <v>0.1408819149045296</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.190042181808581</v>
+        <v>0.1882645672415322</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>352</v>
@@ -8896,19 +8896,19 @@
         <v>344946</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>307786</v>
+        <v>308980</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>380252</v>
+        <v>377678</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2118491057726001</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1890275460222921</v>
+        <v>0.1897603424287376</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2335324024501525</v>
+        <v>0.2319518388221628</v>
       </c>
     </row>
     <row r="26">
@@ -8925,19 +8925,19 @@
         <v>587292</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>562996</v>
+        <v>561181</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>616886</v>
+        <v>614123</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.7369428664591418</v>
+        <v>0.7369428664591415</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.706455757302634</v>
+        <v>0.7041788819652006</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.774078338924243</v>
+        <v>0.7706113436451327</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>901</v>
@@ -8946,19 +8946,19 @@
         <v>696023</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>673343</v>
+        <v>674821</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>713762</v>
+        <v>714211</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.8372398897408355</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.8099578181914191</v>
+        <v>0.8117354327584675</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.8585778368449021</v>
+        <v>0.8591180850954703</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1471</v>
@@ -8967,19 +8967,19 @@
         <v>1283316</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1248010</v>
+        <v>1250584</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1320476</v>
+        <v>1319282</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.7881508942273998</v>
+        <v>0.7881508942273999</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7664675975498475</v>
+        <v>0.7680481611778371</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.810972453977708</v>
+        <v>0.8102396575712625</v>
       </c>
     </row>
     <row r="27">
@@ -9071,19 +9071,19 @@
         <v>901748</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>840920</v>
+        <v>844937</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>959501</v>
+        <v>959800</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2554990116196763</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2382641432519156</v>
+        <v>0.2394022922885192</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2718623964469848</v>
+        <v>0.2719471848166741</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>952</v>
@@ -9092,19 +9092,19 @@
         <v>707214</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>663222</v>
+        <v>666124</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>747844</v>
+        <v>756338</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.18953143835764</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1777417211281965</v>
+        <v>0.178519485723527</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2004202949547753</v>
+        <v>0.2026964780136919</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>1763</v>
@@ -9113,19 +9113,19 @@
         <v>1608962</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>1537825</v>
+        <v>1538225</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>1683452</v>
+        <v>1684558</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2215975019216167</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2118000868114483</v>
+        <v>0.2118551120516892</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2318568348086373</v>
+        <v>0.2320091775632078</v>
       </c>
     </row>
     <row r="29">
@@ -9142,19 +9142,19 @@
         <v>2627613</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2569860</v>
+        <v>2569561</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>2688441</v>
+        <v>2684424</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.7445009883803236</v>
+        <v>0.7445009883803237</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7281376035530159</v>
+        <v>0.7280528151833261</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7617358567480844</v>
+        <v>0.7605977077114809</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4409</v>
@@ -9163,19 +9163,19 @@
         <v>3024166</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>2983536</v>
+        <v>2975042</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>3068158</v>
+        <v>3065256</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.81046856164236</v>
+        <v>0.8104685616423599</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7995797050452246</v>
+        <v>0.7973035219863079</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.822258278871803</v>
+        <v>0.821480514276473</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6971</v>
@@ -9184,19 +9184,19 @@
         <v>5651778</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>5577288</v>
+        <v>5576182</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>5722915</v>
+        <v>5722515</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7784024980783832</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7681431651913628</v>
+        <v>0.7679908224367922</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7881999131885518</v>
+        <v>0.7881448879483108</v>
       </c>
     </row>
     <row r="30">
